--- a/data/meta/META_Mixtures_v6.xlsx
+++ b/data/meta/META_Mixtures_v6.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="300" windowWidth="25360" windowHeight="18780" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28580" windowHeight="16040" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme_v6" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="MixB" sheetId="5" r:id="rId5"/>
     <sheet name="MixF" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="158">
   <si>
     <t>MG_45</t>
   </si>
@@ -465,6 +465,39 @@
   </si>
   <si>
     <t>FC COUNT</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -571,7 +604,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="241">
+  <cellStyleXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -813,8 +846,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -851,8 +932,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="241">
+  <cellStyles count="289">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -973,6 +1069,30 @@
     <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1093,6 +1213,30 @@
     <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1424,9 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:S21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3114,7 +3256,6 @@
     <sortCondition ref="R15:R21"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3125,1241 +3266,1539 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="16384" width="10.83203125" style="4"/>
+    <col min="2" max="4" width="10.83203125" style="4"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" s="14" customFormat="1">
+      <c r="A1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="18" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="20">
+        <v>1930</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>512</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="20">
+        <f>LOG(C2/D2,2)</f>
+        <v>-9</v>
+      </c>
+      <c r="H2" s="20">
+        <v>9</v>
+      </c>
+      <c r="I2" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2649</v>
+      </c>
+      <c r="C3" s="20">
+        <v>2048</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1048576</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="20">
+        <f>LOG(C3/D3,2)</f>
+        <v>-9</v>
+      </c>
+      <c r="H3" s="20">
+        <v>7</v>
+      </c>
+      <c r="I3" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="20">
+        <v>1661</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
+        <v>512</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="20">
+        <f>LOG(C4/D4,2)</f>
+        <v>-9</v>
+      </c>
+      <c r="H4" s="20">
+        <v>5</v>
+      </c>
+      <c r="I4" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="20">
+        <v>2586</v>
+      </c>
+      <c r="C5" s="20">
+        <v>2048</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1048576</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="20">
+        <f>LOG(C5/D5,2)</f>
+        <v>-9</v>
+      </c>
+      <c r="H5" s="20">
+        <v>3</v>
+      </c>
+      <c r="I5" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="20">
+        <v>988</v>
+      </c>
+      <c r="C6" s="20">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20">
+        <v>256</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="20">
+        <f>LOG(C6/D6,2)</f>
+        <v>-7</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1516</v>
+      </c>
+      <c r="C7" s="20">
+        <v>4096</v>
+      </c>
+      <c r="D7" s="20">
+        <v>524288</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="20">
+        <f>LOG(C7/D7,2)</f>
+        <v>-7</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="20">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="20">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20">
+        <v>256</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="20">
+        <f>LOG(C8/D8,2)</f>
+        <v>-7</v>
+      </c>
+      <c r="H8" s="20">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="20">
+        <v>3671</v>
+      </c>
+      <c r="C9" s="20">
+        <v>4096</v>
+      </c>
+      <c r="D9" s="20">
+        <v>524288</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="20">
+        <f>LOG(C9/D9,2)</f>
+        <v>-7</v>
+      </c>
+      <c r="H9" s="20">
+        <v>-3</v>
+      </c>
+      <c r="I9" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="20">
+        <v>2970</v>
+      </c>
+      <c r="C10" s="20">
+        <v>4</v>
+      </c>
+      <c r="D10" s="20">
+        <v>128</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="20">
+        <f>LOG(C10/D10,2)</f>
+        <v>-5</v>
+      </c>
+      <c r="H10" s="20">
+        <v>-5</v>
+      </c>
+      <c r="I10" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="20">
+        <v>2257</v>
+      </c>
+      <c r="C11" s="20">
+        <v>8192</v>
+      </c>
+      <c r="D11" s="20">
+        <v>262144</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="20">
+        <f>LOG(C11/D11,2)</f>
+        <v>-5</v>
+      </c>
+      <c r="H11" s="20">
+        <v>-7</v>
+      </c>
+      <c r="I11" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1695</v>
+      </c>
+      <c r="C12" s="20">
+        <v>4</v>
+      </c>
+      <c r="D12" s="20">
+        <v>128</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="20">
+        <f>LOG(C12/D12,2)</f>
+        <v>-5</v>
+      </c>
+      <c r="H12" s="20">
+        <v>-9</v>
+      </c>
+      <c r="I12" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1591</v>
+      </c>
+      <c r="C13" s="20">
+        <v>8192</v>
+      </c>
+      <c r="D13" s="20">
+        <v>262144</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="20">
+        <f>LOG(C13/D13,2)</f>
+        <v>-5</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1668</v>
+      </c>
+      <c r="C14" s="20">
+        <v>8</v>
+      </c>
+      <c r="D14" s="20">
+        <v>64</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="20">
+        <f>LOG(C14/D14,2)</f>
+        <v>-3</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="20">
+        <v>5314</v>
+      </c>
+      <c r="C15" s="20">
+        <v>16384</v>
+      </c>
+      <c r="D15" s="20">
+        <v>131072</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="20">
+        <f>LOG(C15/D15,2)</f>
+        <v>-3</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="20">
+        <v>4720</v>
+      </c>
+      <c r="C16" s="20">
+        <v>8</v>
+      </c>
+      <c r="D16" s="20">
+        <v>64</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="20">
+        <f>LOG(C16/D16,2)</f>
+        <v>-3</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1850</v>
+      </c>
+      <c r="C17" s="20">
+        <v>16384</v>
+      </c>
+      <c r="D17" s="20">
+        <v>131072</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="20">
+        <f>LOG(C17/D17,2)</f>
+        <v>-3</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="20">
+        <v>2560</v>
+      </c>
+      <c r="C18" s="20">
+        <v>16</v>
+      </c>
+      <c r="D18" s="20">
+        <v>32</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="20">
+        <f>LOG(C18/D18,2)</f>
+        <v>-1</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="20">
+        <v>7060</v>
+      </c>
+      <c r="C19" s="20">
+        <v>32768</v>
+      </c>
+      <c r="D19" s="20">
+        <v>65536</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="20">
+        <f>LOG(C19/D19,2)</f>
+        <v>-1</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="20">
+        <v>2784</v>
+      </c>
+      <c r="C20" s="20">
+        <v>16</v>
+      </c>
+      <c r="D20" s="20">
+        <v>32</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="20">
+        <f>LOG(C20/D20,2)</f>
+        <v>-1</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="20">
+        <v>1138</v>
+      </c>
+      <c r="C21" s="20">
+        <v>32768</v>
+      </c>
+      <c r="D21" s="20">
+        <v>65536</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="20">
+        <f>LOG(C21/D21,2)</f>
+        <v>-1</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B22" s="20">
         <v>1487</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C22" s="21">
         <v>1</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D22" s="21">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
-        <f>LOG(C2/D2,2)</f>
+      <c r="E22" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="20">
+        <f>LOG(C22/D22,2)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="20">
+        <v>1000</v>
+      </c>
+      <c r="C23" s="20">
+        <v>2</v>
+      </c>
+      <c r="D23" s="20">
+        <v>2</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="20">
+        <f>LOG(C23/D23,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="20">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="20">
+        <v>4</v>
+      </c>
+      <c r="D24" s="20">
+        <v>4</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="20">
+        <f>LOG(C24/D24,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="20">
+        <v>2974</v>
+      </c>
+      <c r="C25" s="20">
+        <v>8</v>
+      </c>
+      <c r="D25" s="20">
+        <v>8</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="20">
+        <f>LOG(C25/D25,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="20">
+        <v>2572</v>
+      </c>
+      <c r="C26" s="20">
+        <v>16</v>
+      </c>
+      <c r="D26" s="20">
+        <v>16</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="20">
+        <f>LOG(C26/D26,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="20">
+        <v>5566</v>
+      </c>
+      <c r="C27" s="20">
+        <v>32</v>
+      </c>
+      <c r="D27" s="20">
+        <v>32</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="20">
+        <f>LOG(C27/D27,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="20">
+        <v>1944</v>
+      </c>
+      <c r="C28" s="20">
+        <v>64</v>
+      </c>
+      <c r="D28" s="20">
+        <v>64</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="20">
+        <f>LOG(C28/D28,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20">
+        <v>2272</v>
+      </c>
+      <c r="C29" s="20">
+        <v>128</v>
+      </c>
+      <c r="D29" s="20">
+        <v>128</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="20">
+        <f>LOG(C29/D29,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="20">
+        <v>4510</v>
+      </c>
+      <c r="C30" s="20">
+        <v>256</v>
+      </c>
+      <c r="D30" s="20">
+        <v>256</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="20">
+        <f>LOG(C30/D30,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="20">
+        <v>4127</v>
+      </c>
+      <c r="C31" s="20">
+        <v>512</v>
+      </c>
+      <c r="D31" s="20">
+        <v>512</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="20">
+        <f>LOG(C31/D31,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="20">
+        <v>1838</v>
+      </c>
+      <c r="C32" s="20">
+        <v>1024</v>
+      </c>
+      <c r="D32" s="20">
+        <v>1024</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="20">
+        <f>LOG(C32/D32,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="20">
+        <v>2848</v>
+      </c>
+      <c r="C33" s="20">
+        <v>2048</v>
+      </c>
+      <c r="D33" s="20">
+        <v>2048</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="20">
+        <f>LOG(C33/D33,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="20">
+        <v>1659</v>
+      </c>
+      <c r="C34" s="20">
+        <v>4096</v>
+      </c>
+      <c r="D34" s="20">
+        <v>4096</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="20">
+        <f>LOG(C34/D34,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="20">
+        <v>9121</v>
+      </c>
+      <c r="C35" s="20">
+        <v>8192</v>
+      </c>
+      <c r="D35" s="20">
+        <v>8192</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="20">
+        <f>LOG(C35/D35,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="20">
+        <v>2175</v>
+      </c>
+      <c r="C36" s="20">
+        <v>16384</v>
+      </c>
+      <c r="D36" s="20">
+        <v>16384</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="20">
+        <f>LOG(C36/D36,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="20">
+        <v>1000</v>
+      </c>
+      <c r="C37" s="20">
+        <v>32768</v>
+      </c>
+      <c r="D37" s="20">
+        <v>32768</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="20">
+        <f>LOG(C37/D37,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="20">
+        <v>3232</v>
+      </c>
+      <c r="C38" s="20">
+        <v>65536</v>
+      </c>
+      <c r="D38" s="20">
+        <v>65536</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="20">
+        <f>LOG(C38/D38,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="20">
+        <v>1781</v>
+      </c>
+      <c r="C39" s="20">
+        <v>131072</v>
+      </c>
+      <c r="D39" s="20">
+        <v>131072</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="20">
+        <f>LOG(C39/D39,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="20">
+        <v>2695</v>
+      </c>
+      <c r="C40" s="20">
+        <v>262144</v>
+      </c>
+      <c r="D40" s="20">
+        <v>262144</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="20">
+        <f>LOG(C40/D40,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="20">
+        <v>1558</v>
+      </c>
+      <c r="C41" s="20">
+        <v>524288</v>
+      </c>
+      <c r="D41" s="20">
+        <v>524288</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="20">
+        <f>LOG(C41/D41,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="20">
+        <v>1681</v>
+      </c>
+      <c r="C42" s="20">
+        <v>1048576</v>
+      </c>
+      <c r="D42" s="20">
+        <v>1048576</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="20">
+        <f>LOG(C42/D42,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="20">
+        <v>1709</v>
+      </c>
+      <c r="C43" s="20">
+        <v>1024</v>
+      </c>
+      <c r="D43" s="20">
+        <v>1024</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="20">
+        <f>LOG(C43/D43,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="20">
+        <v>2992</v>
+      </c>
+      <c r="C44" s="20">
+        <v>1024</v>
+      </c>
+      <c r="D44" s="20">
+        <v>1024</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="20">
+        <f>LOG(C44/D44,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="20">
+        <v>1152</v>
+      </c>
+      <c r="C45" s="20">
+        <v>32</v>
+      </c>
+      <c r="D45" s="20">
+        <v>16</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="20">
+        <f>LOG(C45/D45,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4">
+      <c r="B46" s="20">
+        <v>3973</v>
+      </c>
+      <c r="C46" s="20">
+        <v>65536</v>
+      </c>
+      <c r="D46" s="20">
+        <v>32768</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="20">
+        <f>LOG(C46/D46,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="20">
+        <v>6228</v>
+      </c>
+      <c r="C47" s="20">
+        <v>32</v>
+      </c>
+      <c r="D47" s="20">
+        <v>16</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" s="20">
+        <f>LOG(C47/D47,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="20">
+        <v>982</v>
+      </c>
+      <c r="C48" s="20">
+        <v>65536</v>
+      </c>
+      <c r="D48" s="20">
+        <v>32768</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="20">
+        <f>LOG(C48/D48,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="20">
+        <v>4216</v>
+      </c>
+      <c r="C49" s="20">
+        <v>64</v>
+      </c>
+      <c r="D49" s="20">
+        <v>8</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="20">
+        <f>LOG(C49/D49,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="20">
+        <v>1838</v>
+      </c>
+      <c r="C50" s="20">
+        <v>131072</v>
+      </c>
+      <c r="D50" s="20">
+        <v>16384</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" s="20">
+        <f>LOG(C50/D50,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="20">
+        <v>1824</v>
+      </c>
+      <c r="C51" s="20">
+        <v>64</v>
+      </c>
+      <c r="D51" s="20">
+        <v>8</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" s="20">
+        <f>LOG(C51/D51,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="20">
+        <v>2879</v>
+      </c>
+      <c r="C52" s="20">
+        <v>131072</v>
+      </c>
+      <c r="D52" s="20">
+        <v>16384</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" s="20">
+        <f>LOG(C52/D52,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="20">
+        <v>2039</v>
+      </c>
+      <c r="C53" s="20">
+        <v>128</v>
+      </c>
+      <c r="D53" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="E53" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" s="20">
+        <f>LOG(C53/D53,2)</f>
+        <v>5</v>
+      </c>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="20">
+        <v>3218</v>
+      </c>
+      <c r="C54" s="20">
+        <v>262144</v>
+      </c>
+      <c r="D54" s="20">
+        <v>8192</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="20">
+        <f>LOG(C54/D54,2)</f>
+        <v>5</v>
+      </c>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="20">
+        <v>2374</v>
+      </c>
+      <c r="C55" s="20">
+        <v>128</v>
+      </c>
+      <c r="D55" s="20">
+        <v>4</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="20">
+        <f>LOG(C55/D55,2)</f>
+        <v>5</v>
+      </c>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="20">
+        <v>2038</v>
+      </c>
+      <c r="C56" s="20">
+        <v>262144</v>
+      </c>
+      <c r="D56" s="20">
+        <v>8192</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="20">
+        <f>LOG(C56/D56,2)</f>
+        <v>5</v>
+      </c>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="20">
+        <v>1000</v>
+      </c>
+      <c r="C57" s="20">
+        <v>256</v>
+      </c>
+      <c r="D57" s="20">
+        <v>2</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="20">
+        <f>LOG(C57/D57,2)</f>
         <v>7</v>
       </c>
-      <c r="B3" s="4">
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="20">
+        <v>1645</v>
+      </c>
+      <c r="C58" s="20">
+        <v>524288</v>
+      </c>
+      <c r="D58" s="20">
+        <v>4096</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="20">
+        <f>LOG(C58/D58,2)</f>
+        <v>7</v>
+      </c>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="20">
+        <v>1516</v>
+      </c>
+      <c r="C59" s="20">
+        <v>256</v>
+      </c>
+      <c r="D59" s="20">
+        <v>2</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" s="20">
+        <f>LOG(C59/D59,2)</f>
+        <v>7</v>
+      </c>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="20">
+        <v>4133</v>
+      </c>
+      <c r="C60" s="20">
+        <v>524288</v>
+      </c>
+      <c r="D60" s="20">
+        <v>4096</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" s="20">
+        <f>LOG(C60/D60,2)</f>
+        <v>7</v>
+      </c>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="20">
         <v>1000</v>
       </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E64" si="0">LOG(C3/D3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="C61" s="20">
+        <v>512</v>
+      </c>
+      <c r="D61" s="20">
+        <v>1</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="20">
+        <f>LOG(C61/D61,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="20">
+        <v>2812</v>
+      </c>
+      <c r="C62" s="20">
+        <v>1048576</v>
+      </c>
+      <c r="D62" s="20">
+        <v>2048</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="20">
+        <f>LOG(C62/D62,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="20">
         <v>1000</v>
       </c>
-      <c r="C4" s="4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2974</v>
-      </c>
-      <c r="C5" s="4">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2572</v>
-      </c>
-      <c r="C6" s="4">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="C63" s="20">
+        <v>512</v>
+      </c>
+      <c r="D63" s="20">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5566</v>
-      </c>
-      <c r="C7" s="4">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1944</v>
-      </c>
-      <c r="C8" s="4">
-        <v>64</v>
-      </c>
-      <c r="D8" s="4">
-        <v>64</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2272</v>
-      </c>
-      <c r="C9" s="4">
-        <v>128</v>
-      </c>
-      <c r="D9" s="4">
-        <v>128</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>-3</v>
-      </c>
-      <c r="G9" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4">
-        <v>4510</v>
-      </c>
-      <c r="C10" s="4">
-        <v>256</v>
-      </c>
-      <c r="D10" s="4">
-        <v>256</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>-5</v>
-      </c>
-      <c r="G10" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="4">
-        <v>4127</v>
-      </c>
-      <c r="C11" s="4">
-        <v>512</v>
-      </c>
-      <c r="D11" s="4">
-        <v>512</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>-7</v>
-      </c>
-      <c r="G11" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1838</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1024</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1024</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>-9</v>
-      </c>
-      <c r="G12" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2848</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="E63" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="20">
+        <f>LOG(C63/D63,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="20">
+        <v>2175</v>
+      </c>
+      <c r="C64" s="20">
+        <v>1048576</v>
+      </c>
+      <c r="D64" s="20">
         <v>2048</v>
       </c>
-      <c r="D13" s="4">
-        <v>2048</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1659</v>
-      </c>
-      <c r="C14" s="4">
-        <v>4096</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4096</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>9121</v>
-      </c>
-      <c r="C15" s="4">
-        <v>8192</v>
-      </c>
-      <c r="D15" s="4">
-        <v>8192</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2175</v>
-      </c>
-      <c r="C16" s="4">
-        <v>16384</v>
-      </c>
-      <c r="D16" s="4">
-        <v>16384</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="4">
-        <v>32768</v>
-      </c>
-      <c r="D17" s="4">
-        <v>32768</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4">
-        <v>3232</v>
-      </c>
-      <c r="C18" s="4">
-        <v>65536</v>
-      </c>
-      <c r="D18" s="4">
-        <v>65536</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1781</v>
-      </c>
-      <c r="C19" s="4">
-        <v>131072</v>
-      </c>
-      <c r="D19" s="4">
-        <v>131072</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4">
-        <v>2695</v>
-      </c>
-      <c r="C20" s="4">
-        <v>262144</v>
-      </c>
-      <c r="D20" s="4">
-        <v>262144</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1558</v>
-      </c>
-      <c r="C21" s="4">
-        <v>524288</v>
-      </c>
-      <c r="D21" s="4">
-        <v>524288</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1681</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1048576</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1048576</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1930</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>512</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="0"/>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="4">
-        <v>988</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4">
-        <v>256</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4">
-        <v>2970</v>
-      </c>
-      <c r="C25" s="4">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4">
-        <v>128</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1668</v>
-      </c>
-      <c r="C26" s="4">
-        <v>8</v>
-      </c>
-      <c r="D26" s="4">
-        <v>64</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="4">
-        <v>2560</v>
-      </c>
-      <c r="C27" s="4">
-        <v>16</v>
-      </c>
-      <c r="D27" s="4">
-        <v>32</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1152</v>
-      </c>
-      <c r="C28" s="4">
-        <v>32</v>
-      </c>
-      <c r="D28" s="4">
-        <v>16</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="4">
-        <v>4216</v>
-      </c>
-      <c r="C29" s="4">
-        <v>64</v>
-      </c>
-      <c r="D29" s="4">
-        <v>8</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="4">
-        <v>2039</v>
-      </c>
-      <c r="C30" s="4">
-        <v>128</v>
-      </c>
-      <c r="D30" s="4">
-        <v>4</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C31" s="4">
-        <v>256</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C32" s="4">
-        <v>512</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="0"/>
+      <c r="E64" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F64" s="20">
+        <f>LOG(C64/D64,2)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1709</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1024</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1024</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4">
-        <v>2649</v>
-      </c>
-      <c r="C34" s="4">
-        <v>2048</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1048576</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="0"/>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1516</v>
-      </c>
-      <c r="C35" s="4">
-        <v>4096</v>
-      </c>
-      <c r="D35" s="4">
-        <v>524288</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="4">
-        <v>2257</v>
-      </c>
-      <c r="C36" s="4">
-        <v>8192</v>
-      </c>
-      <c r="D36" s="4">
-        <v>262144</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4">
-        <v>5314</v>
-      </c>
-      <c r="C37" s="4">
-        <v>16384</v>
-      </c>
-      <c r="D37" s="4">
-        <v>131072</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="4">
-        <v>7060</v>
-      </c>
-      <c r="C38" s="4">
-        <v>32768</v>
-      </c>
-      <c r="D38" s="4">
-        <v>65536</v>
-      </c>
-      <c r="E38" s="4">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="4">
-        <v>3973</v>
-      </c>
-      <c r="C39" s="4">
-        <v>65536</v>
-      </c>
-      <c r="D39" s="4">
-        <v>32768</v>
-      </c>
-      <c r="E39" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1838</v>
-      </c>
-      <c r="C40" s="4">
-        <v>131072</v>
-      </c>
-      <c r="D40" s="4">
-        <v>16384</v>
-      </c>
-      <c r="E40" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="4">
-        <v>3218</v>
-      </c>
-      <c r="C41" s="4">
-        <v>262144</v>
-      </c>
-      <c r="D41" s="4">
-        <v>8192</v>
-      </c>
-      <c r="E41" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1645</v>
-      </c>
-      <c r="C42" s="4">
-        <v>524288</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4096</v>
-      </c>
-      <c r="E42" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="4">
-        <v>2812</v>
-      </c>
-      <c r="C43" s="4">
-        <v>1048576</v>
-      </c>
-      <c r="D43" s="4">
-        <v>2048</v>
-      </c>
-      <c r="E43" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="4">
-        <v>1661</v>
-      </c>
-      <c r="C44" s="4">
-        <v>1</v>
-      </c>
-      <c r="D44" s="4">
-        <v>512</v>
-      </c>
-      <c r="E44" s="4">
-        <f t="shared" si="0"/>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C45" s="4">
-        <v>2</v>
-      </c>
-      <c r="D45" s="4">
-        <v>256</v>
-      </c>
-      <c r="E45" s="4">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4">
-        <v>1695</v>
-      </c>
-      <c r="C46" s="4">
-        <v>4</v>
-      </c>
-      <c r="D46" s="4">
-        <v>128</v>
-      </c>
-      <c r="E46" s="4">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="4">
-        <v>4720</v>
-      </c>
-      <c r="C47" s="4">
-        <v>8</v>
-      </c>
-      <c r="D47" s="4">
-        <v>64</v>
-      </c>
-      <c r="E47" s="4">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="4">
-        <v>2784</v>
-      </c>
-      <c r="C48" s="4">
-        <v>16</v>
-      </c>
-      <c r="D48" s="4">
-        <v>32</v>
-      </c>
-      <c r="E48" s="4">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="4">
-        <v>6228</v>
-      </c>
-      <c r="C49" s="4">
-        <v>32</v>
-      </c>
-      <c r="D49" s="4">
-        <v>16</v>
-      </c>
-      <c r="E49" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="4">
-        <v>1824</v>
-      </c>
-      <c r="C50" s="4">
-        <v>64</v>
-      </c>
-      <c r="D50" s="4">
-        <v>8</v>
-      </c>
-      <c r="E50" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="4">
-        <v>2374</v>
-      </c>
-      <c r="C51" s="4">
-        <v>128</v>
-      </c>
-      <c r="D51" s="4">
-        <v>4</v>
-      </c>
-      <c r="E51" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="4">
-        <v>1516</v>
-      </c>
-      <c r="C52" s="4">
-        <v>256</v>
-      </c>
-      <c r="D52" s="4">
-        <v>2</v>
-      </c>
-      <c r="E52" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C53" s="4">
-        <v>512</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="4">
-        <v>2992</v>
-      </c>
-      <c r="C54" s="4">
-        <v>1024</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1024</v>
-      </c>
-      <c r="E54" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="4">
-        <v>2586</v>
-      </c>
-      <c r="C55" s="4">
-        <v>2048</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1048576</v>
-      </c>
-      <c r="E55" s="4">
-        <f t="shared" si="0"/>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="4">
-        <v>3671</v>
-      </c>
-      <c r="C56" s="4">
-        <v>4096</v>
-      </c>
-      <c r="D56" s="4">
-        <v>524288</v>
-      </c>
-      <c r="E56" s="4">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="4">
-        <v>1591</v>
-      </c>
-      <c r="C57" s="4">
-        <v>8192</v>
-      </c>
-      <c r="D57" s="4">
-        <v>262144</v>
-      </c>
-      <c r="E57" s="4">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="4">
-        <v>1850</v>
-      </c>
-      <c r="C58" s="4">
-        <v>16384</v>
-      </c>
-      <c r="D58" s="4">
-        <v>131072</v>
-      </c>
-      <c r="E58" s="4">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="4">
-        <v>1138</v>
-      </c>
-      <c r="C59" s="4">
-        <v>32768</v>
-      </c>
-      <c r="D59" s="4">
-        <v>65536</v>
-      </c>
-      <c r="E59" s="4">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="4">
-        <v>982</v>
-      </c>
-      <c r="C60" s="4">
-        <v>65536</v>
-      </c>
-      <c r="D60" s="4">
-        <v>32768</v>
-      </c>
-      <c r="E60" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="4">
-        <v>2879</v>
-      </c>
-      <c r="C61" s="4">
-        <v>131072</v>
-      </c>
-      <c r="D61" s="4">
-        <v>16384</v>
-      </c>
-      <c r="E61" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62" s="4">
-        <v>2038</v>
-      </c>
-      <c r="C62" s="4">
-        <v>262144</v>
-      </c>
-      <c r="D62" s="4">
-        <v>8192</v>
-      </c>
-      <c r="E62" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="4">
-        <v>4133</v>
-      </c>
-      <c r="C63" s="4">
-        <v>524288</v>
-      </c>
-      <c r="D63" s="4">
-        <v>4096</v>
-      </c>
-      <c r="E63" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="4">
-        <v>2175</v>
-      </c>
-      <c r="C64" s="4">
-        <v>1048576</v>
-      </c>
-      <c r="D64" s="4">
-        <v>2048</v>
-      </c>
-      <c r="E64" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
     </row>
   </sheetData>
-  <sortState ref="F2:G12">
-    <sortCondition descending="1" ref="F2"/>
+  <sortState ref="A2:F64">
+    <sortCondition ref="F2:F64"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4946,7 +5385,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5946,7 +6384,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5983,7 +6420,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>57</v>
       </c>
@@ -5998,7 +6435,7 @@
         <v>1.4870000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -6013,7 +6450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>55</v>
       </c>
@@ -6028,7 +6465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -6043,7 +6480,7 @@
         <v>23.792000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -6058,7 +6495,7 @@
         <v>41.152000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -6073,7 +6510,7 @@
         <v>178.11199999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
@@ -6088,7 +6525,7 @@
         <v>124.416</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -6103,7 +6540,7 @@
         <v>290.81599999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1">
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -6118,7 +6555,7 @@
         <v>1154.56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1">
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -6133,7 +6570,7 @@
         <v>2113.0239999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
@@ -6148,7 +6585,7 @@
         <v>1882.1120000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -6163,7 +6600,7 @@
         <v>5832.7039999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
@@ -6178,7 +6615,7 @@
         <v>6795.2640000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -6193,7 +6630,7 @@
         <v>74719.232000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -6208,7 +6645,7 @@
         <v>35635.199999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1">
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -6223,7 +6660,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1">
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -6238,7 +6675,7 @@
         <v>211812.35200000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1">
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
@@ -6253,7 +6690,7 @@
         <v>233439.23199999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1">
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -6268,7 +6705,7 @@
         <v>706478.07999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1">
+    <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
@@ -6283,7 +6720,7 @@
         <v>816840.70400000003</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1">
+    <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>62</v>
       </c>
@@ -6298,7 +6735,7 @@
         <v>1762656.2560000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1">
+    <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -6313,7 +6750,7 @@
         <v>988.16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1">
+    <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
         <v>48</v>
       </c>
@@ -6328,7 +6765,7 @@
         <v>252.928</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1">
+    <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
@@ -6343,7 +6780,7 @@
         <v>380.16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1">
+    <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
         <v>59</v>
       </c>
@@ -6358,7 +6795,7 @@
         <v>106.752</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="1" customFormat="1">
+    <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -6373,7 +6810,7 @@
         <v>81.92</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1">
+    <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
@@ -6388,7 +6825,7 @@
         <v>18.431999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1">
+    <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -6403,7 +6840,7 @@
         <v>33.728000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1">
+    <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
@@ -6418,7 +6855,7 @@
         <v>8.1560000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1">
+    <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
@@ -6433,7 +6870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1">
+    <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
         <v>54</v>
       </c>
@@ -6448,7 +6885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="1" customFormat="1">
+    <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -6463,7 +6900,7 @@
         <v>1750.0160000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1">
+    <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
@@ -6478,7 +6915,7 @@
         <v>2777677.824</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="1" customFormat="1">
+    <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
         <v>53</v>
       </c>
@@ -6493,7 +6930,7 @@
         <v>794820.60800000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="1" customFormat="1">
+    <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -6508,7 +6945,7 @@
         <v>591659.00800000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="1" customFormat="1">
+    <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
@@ -6523,7 +6960,7 @@
         <v>696516.60800000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="1" customFormat="1">
+    <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
         <v>6</v>
       </c>
@@ -6538,7 +6975,7 @@
         <v>462684.15999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="1" customFormat="1">
+    <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
         <v>9</v>
       </c>
@@ -6553,7 +6990,7 @@
         <v>130187.264</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="1" customFormat="1">
+    <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
         <v>22</v>
       </c>
@@ -6568,7 +7005,7 @@
         <v>30113.792000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="1" customFormat="1">
+    <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
         <v>20</v>
       </c>
@@ -6583,7 +7020,7 @@
         <v>26361.856</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="1" customFormat="1">
+    <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
         <v>51</v>
       </c>
@@ -6598,7 +7035,7 @@
         <v>6737.92</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="1" customFormat="1">
+    <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
         <v>21</v>
       </c>
@@ -6613,7 +7050,7 @@
         <v>5758.9759999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="1" customFormat="1">
+    <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
@@ -6628,7 +7065,7 @@
         <v>850.43200000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="1" customFormat="1">
+    <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -6643,7 +7080,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="1" customFormat="1">
+    <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
@@ -6658,7 +7095,7 @@
         <v>216.96</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="1" customFormat="1">
+    <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
@@ -6673,7 +7110,7 @@
         <v>302.08</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="1" customFormat="1">
+    <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
         <v>32</v>
       </c>
@@ -6688,7 +7125,7 @@
         <v>89.087999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="1" customFormat="1">
+    <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
         <v>15</v>
       </c>
@@ -6703,7 +7140,7 @@
         <v>99.647999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="1" customFormat="1">
+    <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
         <v>61</v>
       </c>
@@ -6718,7 +7155,7 @@
         <v>14.592000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="1" customFormat="1">
+    <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
@@ -6733,7 +7170,7 @@
         <v>9.4960000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="1" customFormat="1">
+    <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -6748,7 +7185,7 @@
         <v>3.032</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="1" customFormat="1">
+    <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
         <v>41</v>
       </c>
@@ -6763,7 +7200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="1" customFormat="1">
+    <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
         <v>5</v>
       </c>
@@ -6778,7 +7215,7 @@
         <v>3063.808</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="1" customFormat="1">
+    <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
         <v>24</v>
       </c>
@@ -6793,7 +7230,7 @@
         <v>2711617.5359999998</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="1" customFormat="1">
+    <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
         <v>17</v>
       </c>
@@ -6808,7 +7245,7 @@
         <v>1924661.2479999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="1" customFormat="1">
+    <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
         <v>42</v>
       </c>
@@ -6823,7 +7260,7 @@
         <v>417071.10399999999</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="1" customFormat="1">
+    <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
         <v>34</v>
       </c>
@@ -6838,7 +7275,7 @@
         <v>242483.20000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="1" customFormat="1">
+    <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
         <v>43</v>
       </c>
@@ -6853,7 +7290,7 @@
         <v>74579.967999999993</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="1" customFormat="1">
+    <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
         <v>47</v>
       </c>
@@ -6868,7 +7305,7 @@
         <v>32178.175999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="1" customFormat="1">
+    <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
         <v>37</v>
       </c>
@@ -6883,7 +7320,7 @@
         <v>47169.536</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="1" customFormat="1">
+    <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
         <v>36</v>
       </c>
@@ -6898,7 +7335,7 @@
         <v>16695.295999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="1" customFormat="1">
+    <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
         <v>2</v>
       </c>
@@ -6913,7 +7350,7 @@
         <v>16928.768</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="1" customFormat="1">
+    <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
         <v>40</v>
       </c>
@@ -6928,8 +7365,7 @@
         <v>4454.3999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="1" customFormat="1">
-      <c r="A66" s="4"/>
+    <row r="66" spans="2:4">
       <c r="B66" s="14">
         <f>SUM(B2:B64)</f>
         <v>161391</v>
@@ -6945,7 +7381,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7944,7 +8379,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
